--- a/dataset/result/tiedK_chart.xlsx
+++ b/dataset/result/tiedK_chart.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,25 +506,25 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>300</v>
+        <v>2667</v>
       </c>
       <c r="H2" t="n">
-        <v>2840</v>
+        <v>473</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006298110566829951</v>
+        <v>0.006302521008403362</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01251738525730181</v>
+        <v>0.01214574898785425</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,25 +550,25 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>378</v>
+        <v>3207</v>
       </c>
       <c r="H3" t="n">
-        <v>3565</v>
+        <v>736</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007792930698580574</v>
+        <v>0.008086253369272238</v>
       </c>
       <c r="K3" t="n">
-        <v>0.875</v>
+        <v>0.1875</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01544827586206897</v>
+        <v>0.01550387596899225</v>
       </c>
     </row>
     <row r="4">
@@ -579,40 +579,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1009</v>
+        <v>2154</v>
       </c>
       <c r="H4" t="n">
-        <v>8169</v>
+        <v>986</v>
       </c>
       <c r="I4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>0.004144825064000975</v>
+        <v>0.008048289738430584</v>
       </c>
       <c r="K4" t="n">
-        <v>0.723404255319149</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008242424242424242</v>
+        <v>0.0158102766798419</v>
       </c>
     </row>
     <row r="5">
@@ -623,7 +623,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -632,31 +632,31 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>361</v>
+        <v>2782</v>
       </c>
       <c r="H5" t="n">
-        <v>2779</v>
+        <v>1161</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006435466571326421</v>
+        <v>0.00938566552901024</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.34375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0127886323268206</v>
+        <v>0.01827242524916944</v>
       </c>
     </row>
     <row r="6">
@@ -667,40 +667,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27</v>
-      </c>
       <c r="G6" t="n">
-        <v>417</v>
+        <v>2528</v>
       </c>
       <c r="H6" t="n">
-        <v>3526</v>
+        <v>612</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007599211933577259</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="K6" t="n">
-        <v>0.84375</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01506276150627615</v>
+        <v>0.009478672985781991</v>
       </c>
     </row>
     <row r="7">
@@ -711,40 +711,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>smote</t>
+          <t>over</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>967</v>
+        <v>3066</v>
       </c>
       <c r="H7" t="n">
-        <v>8211</v>
+        <v>877</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
-        <v>0.004002911208151383</v>
+        <v>0.006795016987542469</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.1875</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00796043903027379</v>
+        <v>0.01311475409836066</v>
       </c>
     </row>
     <row r="8">
@@ -755,12 +755,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -770,25 +770,25 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>208</v>
+        <v>1164</v>
       </c>
       <c r="H8" t="n">
-        <v>2932</v>
+        <v>1976</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006101694915254237</v>
+        <v>0.004032258064516129</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01212938005390836</v>
+        <v>0.007992007992007992</v>
       </c>
     </row>
     <row r="9">
@@ -799,12 +799,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bayes</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>under</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -814,25 +814,25 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>267</v>
+        <v>1303</v>
       </c>
       <c r="H9" t="n">
-        <v>3676</v>
+        <v>2640</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008094981111710739</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9375</v>
+        <v>0.6875</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01605136436597111</v>
+        <v>0.01633259094283593</v>
       </c>
     </row>
     <row r="10">
@@ -848,35 +848,35 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>over</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>502</v>
+        <v>275</v>
       </c>
       <c r="H10" t="n">
-        <v>8676</v>
+        <v>2865</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.005045871559633028</v>
+        <v>0.005898681471200555</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01003764115432873</v>
+        <v>0.01172413793103448</v>
       </c>
     </row>
     <row r="11">
@@ -892,35 +892,35 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>none</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>240</v>
+        <v>378</v>
       </c>
       <c r="H11" t="n">
-        <v>2900</v>
+        <v>3565</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00616860863605209</v>
+        <v>0.008344923504867872</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01226158038147139</v>
+        <v>0.01654259718775848</v>
       </c>
     </row>
     <row r="12">
@@ -936,35 +936,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>under</t>
+          <t>smote</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>494</v>
+        <v>575</v>
       </c>
       <c r="H12" t="n">
-        <v>3449</v>
+        <v>2565</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007482014388489209</v>
+        <v>0.006584043377226956</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8125</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0148274878813801</v>
+        <v>0.01307692307692308</v>
       </c>
     </row>
     <row r="13">
@@ -980,35 +980,1267 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
+        <v>805</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3138</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.007903888713246918</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.01564945226917058</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>18</v>
+      </c>
+      <c r="G14" t="n">
+        <v>143</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2997</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.005970149253731343</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.01186943620178042</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31</v>
+      </c>
+      <c r="G15" t="n">
+        <v>197</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3746</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.008207572147206778</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.01627723812024153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>under</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>622</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2518</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.005529225908372828</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.01098039215686275</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bayes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G17" t="n">
+        <v>876</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3067</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.005834683954619124</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.01154956689124158</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2906</v>
+      </c>
+      <c r="H18" t="n">
+        <v>234</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3904</v>
+      </c>
+      <c r="H19" t="n">
+        <v>39</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1620</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1520</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0045841519318926</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.009061488673139158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2105</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1838</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.008094981111710739</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.01591511936339523</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="G22" t="n">
+        <v>2236</v>
+      </c>
+      <c r="H22" t="n">
+        <v>904</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.005500550055005501</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.01078748651564186</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2877</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1066</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0065237651444548</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.21875</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.01266968325791855</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1278</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1862</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.004810261892036344</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.009528851244044468</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KNN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1390</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2553</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.007001166861143524</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.01383019592777564</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2787</v>
+      </c>
+      <c r="H26" t="n">
+        <v>353</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.005633802816901409</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.01072386058981233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3458</v>
+      </c>
+      <c r="H27" t="n">
+        <v>485</v>
+      </c>
+      <c r="I27" t="n">
+        <v>28</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0081799591002045</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.01535508637236084</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2218</v>
+      </c>
+      <c r="H28" t="n">
+        <v>922</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.005393743257820928</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.01058201058201058</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2744</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1199</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.00990916597853014</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.01930812550281577</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2438</v>
+      </c>
+      <c r="H30" t="n">
+        <v>702</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.002840909090909091</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.00554016620498615</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3128</v>
+      </c>
+      <c r="H31" t="n">
+        <v>815</v>
+      </c>
+      <c r="I31" t="n">
+        <v>24</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.009720534629404616</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.01871345029239766</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1082</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2058</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.003389830508474576</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.00672107537205953</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>randomForest</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>22</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1207</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2736</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.007976794778825236</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.01577060931899642</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3140</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>18</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3943</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>32</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>989</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2151</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.004166666666666667</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.008264462809917356</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>smote</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
         <v>21</v>
       </c>
-      <c r="G13" t="n">
-        <v>1431</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7747</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.002703398558187436</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.4468085106382979</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.005374280230326296</v>
+      <c r="G37" t="n">
+        <v>1189</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2754</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.007567567567567567</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.01496259351620948</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>792</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2348</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.005927180355630821</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.01176470588235294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>21</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2943</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.00708502024291498</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.01401869158878505</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
+      </c>
+      <c r="G40" t="n">
+        <v>926</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2214</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.006729475100942127</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01335113484646195</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>chart</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>19</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1179</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2764</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.006827164929931728</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.01349911190053286</v>
       </c>
     </row>
   </sheetData>
